--- a/doc/Requerimientos.xlsx
+++ b/doc/Requerimientos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos Locales\Aprendizaje\Estudios\Universidad\8o. Ciclo\Desarrollo Web\01 Desarrollo Web - Actividades\Proyecto Final - VotaSmart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\VotaSmart\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6AA4D4-1D21-4B48-B8C0-C4ED454F7733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C9555C-9D7D-495E-9DF7-AE99E2C33850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2969,8 +2969,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/Requerimientos.xlsx
+++ b/doc/Requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\VotaSmart\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E52327B-388A-4518-A99A-A5B4B9B89471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FAF229-E2D3-4863-9A04-5BBDE55F41C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,48 +305,6 @@
     <t>Catálogo de Cuerpo Técnico del Equipo</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Como Usuario administrador de la Plataforma.
-Debo poder crear las nóminas de los integrantes del cuerpo técnico para cada uno de los equipo que hay en la Liga Nacional de Fútbol.
-Cada registro deberá tener la siguiente informacion:
-- Nombre
-- Apellido
-- Año de nacimiento
-- Género (Masculino o Femenino)
-- Cargo en el cuerpo técnico (Entrenador, Asistente, Médico, Staff)
-- Estado (Activo, Inactivo)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Consideraciones:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>- Dentro del Cuerpo Técnico solo puede exisitr una persona con el cargo de Director Técnico.
-- Dentro del Cuerpo Técnico solo puede existir una persona con el cargo de Asitente de Director Técnico.
-- Dentro del Cuerpo Técnico solo puede existir una persona con el cargo de Médico.
-- Dentro del Cuerpo Técnico solo puden existir un máximo de tres personas con el cargo de Staff Técnico.
-- Dentro del Cuerpo Técnico solo pueden exitir un máximo de dos personas con el cargo de Utilero
-- Un Miembro del cuerpo Técnico no puede pertenecer a dos equipos al mismo tiempo</t>
-    </r>
-  </si>
-  <si>
     <t>Catálogo de Torneos</t>
   </si>
   <si>
@@ -374,46 +332,6 @@
   </si>
   <si>
     <t>Catálogo de Juegos por Jornada</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Como usuario Administrador de la Plataforma
-Debo poder crear los juegos correspondientes a la jornada seleccionada
-Cada juego tendrá la siguiente configuración
-- Fecha del Juego
-- Hora de Juego
-- Estadio donde se disputará el Juego
-- Lugar del Juego (Departamento, Municipio)
-- Equipo de Árbitros (Árbitro Central, Asistentes y Cuarto Árbitro)
-- Equipo Local
-- Equipo Visitante
-- Jornada Asociada
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Consideraciones:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-- En una misma Jornada un equipo no puede jugar 2 veces.
-- Los juegos pueden ser creados por adelantado, dejando pendientes la asignación del equipo arbitral</t>
-    </r>
   </si>
   <si>
     <t>Detalles del Juego</t>
@@ -697,6 +615,78 @@
       <t>- En un equipo pueden existir hasta 4 capitanes, es decir al menos 4 jugadores de la plantilla de cada equipo pueden ser capitanes del equipo.
 - Cada equipo debe tener un mínimo de 16 jugadores y un máximo de 23 jugadores
 - Un jugador no puede pertenecer a dos equipos al mismo tiempo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como Usuario administrador de la Plataforma.
+Debo poder crear las nóminas de los integrantes del cuerpo técnico para cada uno de los equipo que hay en la Liga Nacional de Fútbol.
+Cada registro deberá tener la siguiente informacion:
+- Nombre
+- Apellido
+- Año de nacimiento
+- Género (Masculino o Femenino)
+- Cargo en el cuerpo técnico (Entrenador, Asistente, Médico, Staff)
+- Estado (Activo, Inactivo)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Consideraciones:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>- Dentro del Cuerpo Técnico solo puede exisitr una persona con el cargo de Director Técnico.
+- Dentro del Cuerpo Técnico solo puede existir una persona con el cargo de Asitente de Director Técnico.
+- Dentro del Cuerpo Técnico solo puede existir una persona con el cargo de Médico.
+- Dentro del Cuerpo Técnico solo puden existir un máximo de tres personas con el cargo de Staff Técnico.
+- Dentro del Cuerpo Técnico solo pueden exitir un máximo de dos personas con el cargo de Utilero
+- Un Miembro del cuerpo Técnico no puede pertenecer a dos equipos al mismo tiempo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como usuario Administrador de la Plataforma
+Debo poder crear los juegos correspondientes a la jornada seleccionada
+Cada juego tendrá la siguiente configuración
+- Fecha del Juego
+- Hora de Juego
+- Estadio donde se disputará el Juego
+- Lugar del Juego (Departamento, Municipio)
+- Equipo de Árbitros (Árbitro Central, Asistentes y Cuarto Árbitro)
+- Equipo Local
+- Equipo Visitante
+- Jornada Asociada
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Consideraciones:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+- En una misma Jornada un equipo no puede jugar 2 veces.
+- Los juegos pueden ser creados por adelantado, dejando pendientes la asignación del equipo arbitral</t>
     </r>
   </si>
 </sst>
@@ -1074,17 +1064,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,6 +1101,17 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,621 +1378,621 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="34"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="37"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="37"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="37"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="37"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="37"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="37"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="37"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="37"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="37"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="37"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="37"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="37"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="37"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="37"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="37"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="37"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="37"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
     </row>
     <row r="34" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="37"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
     </row>
     <row r="35" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="37"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
     </row>
     <row r="36" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="37"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="37" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="37"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
     </row>
     <row r="38" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="37"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
     </row>
     <row r="39" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="37"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="50"/>
     </row>
     <row r="40" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="53"/>
     </row>
     <row r="41" spans="2:16" ht="15.75" customHeight="1"/>
     <row r="42" spans="2:16" ht="15.75" customHeight="1"/>
@@ -2980,8 +2970,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
@@ -3019,46 +3009,46 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="25">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="25">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="25">
@@ -3095,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>13</v>
@@ -3116,7 +3106,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>13</v>
@@ -3124,25 +3114,25 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A7" s="25">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="25">
@@ -3155,10 +3145,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>13</v>
@@ -3176,10 +3166,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>13</v>
@@ -3197,10 +3187,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>13</v>
@@ -3208,214 +3198,214 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="53">
+      <c r="A11" s="44">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" ht="137.5">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="D12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="E12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="1:7" ht="137.5">
-      <c r="A12" s="41">
-        <v>11</v>
-      </c>
-      <c r="B12" s="42" t="s">
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="44" t="s">
+      <c r="C13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="48">
-        <v>12</v>
-      </c>
-      <c r="B13" s="49" t="s">
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="39">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="44" t="s">
+      <c r="C14" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="48">
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="40">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="40">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="46" t="s">
+      <c r="C16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="49">
-        <v>14</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="46" t="s">
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A17" s="40">
+        <v>16</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="49">
-        <v>15</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="50" t="s">
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="40">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="C18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="D18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A17" s="49">
-        <v>16</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="46" t="s">
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="40">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="49">
-        <v>17</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="46" t="s">
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="40">
+        <v>19</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="49">
-        <v>18</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="49">
-        <v>19</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="29"/>
